--- a/public/partner-users.xlsx
+++ b/public/partner-users.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
-  <si>
-    <t>UserName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Role</t>
   </si>
@@ -497,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,26 +502,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,213 +531,180 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E11" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/public/partner-users.xlsx
+++ b/public/partner-users.xlsx
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
-  <si>
-    <t>Role</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Tenant</t>
   </si>
@@ -42,9 +39,6 @@
     <t>Jareen</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Jareentaj</t>
   </si>
   <si>
@@ -139,18 +133,6 @@
   </si>
   <si>
     <t>17/06/2024 9:38PM</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Partner Admin</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Super Admin</t>
   </si>
 </sst>
 </file>
@@ -494,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,25 +484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,183 +509,150 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
